--- a/predictionValues/answers_pred_sub.xlsx
+++ b/predictionValues/answers_pred_sub.xlsx
@@ -375,1082 +375,1082 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B2">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B3">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B4">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B5">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.8910805038277154</v>
+        <v>0.8967873837484649</v>
       </c>
       <c r="B6">
-        <v>0.1089194961722846</v>
+        <v>0.1032126162515351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.9548075742564475</v>
+        <v>0.9579595885450986</v>
       </c>
       <c r="B7">
-        <v>0.04519242574355253</v>
+        <v>0.04204041145490145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B8">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B9">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.94054235920294</v>
+        <v>0.9361714836121064</v>
       </c>
       <c r="B10">
-        <v>0.05945764079705995</v>
+        <v>0.06382851638789355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B11">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B12">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B13">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B14">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B15">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B16">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.9201850754020373</v>
+        <v>0.9255636317755322</v>
       </c>
       <c r="B17">
-        <v>0.07981492459796269</v>
+        <v>0.07443636822446775</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B18">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.9579595885450986</v>
+        <v>0.9548075742564475</v>
       </c>
       <c r="B19">
-        <v>0.04204041145490145</v>
+        <v>0.04519242574355253</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B20">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B21">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.9715971207371186</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B22">
-        <v>0.02840287926288143</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.9384203236693153</v>
+        <v>0.9418087946014696</v>
       </c>
       <c r="B23">
-        <v>0.06157967633068473</v>
+        <v>0.0581912053985304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B24">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B25">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B26">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.9463760617991327</v>
+        <v>0.9561455638324161</v>
       </c>
       <c r="B27">
-        <v>0.0536239382008673</v>
+        <v>0.04385443616758389</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B28">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B29">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B30">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B31">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B32">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B33">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B34">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B35">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.9096253002421955</v>
+        <v>0.9255636317755322</v>
       </c>
       <c r="B36">
-        <v>0.09037469975780454</v>
+        <v>0.07443636822446775</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.9218288972451336</v>
+        <v>0.9271054551780916</v>
       </c>
       <c r="B37">
-        <v>0.07817110275486638</v>
+        <v>0.07289454482190838</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B38">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.9463760617991327</v>
+        <v>0.9561455638324161</v>
       </c>
       <c r="B39">
-        <v>0.0536239382008673</v>
+        <v>0.04385443616758389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.9561455638324161</v>
+        <v>0.9463760617991327</v>
       </c>
       <c r="B40">
-        <v>0.04385443616758389</v>
+        <v>0.0536239382008673</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B41">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.9500854021755016</v>
+        <v>0.9463760617991327</v>
       </c>
       <c r="B42">
-        <v>0.04991459782449836</v>
+        <v>0.0536239382008673</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.9579595885450986</v>
+        <v>0.9548075742564475</v>
       </c>
       <c r="B43">
-        <v>0.04204041145490145</v>
+        <v>0.04519242574355253</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.9719361207184289</v>
+        <v>0.965557584401581</v>
       </c>
       <c r="B44">
-        <v>0.02806387928157106</v>
+        <v>0.03444241559841899</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.934832212841335</v>
+        <v>0.9384051632134848</v>
       </c>
       <c r="B45">
-        <v>0.065167787158665</v>
+        <v>0.06159483678651523</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.9446136498551886</v>
+        <v>0.948438259779062</v>
       </c>
       <c r="B46">
-        <v>0.05538635014481141</v>
+        <v>0.05156174022093796</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.9157555217812544</v>
+        <v>0.9214070815667501</v>
       </c>
       <c r="B47">
-        <v>0.08424447821874559</v>
+        <v>0.07859291843324989</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B48">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B49">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B50">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B51">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B52">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B53">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B54">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B55">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.934832212841335</v>
+        <v>0.9384051632134848</v>
       </c>
       <c r="B56">
-        <v>0.065167787158665</v>
+        <v>0.06159483678651523</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B57">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.9654660911231961</v>
+        <v>0.9576810345100899</v>
       </c>
       <c r="B58">
-        <v>0.03453390887680385</v>
+        <v>0.0423189654899101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B59">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.9719361207184289</v>
+        <v>0.9697989717910633</v>
       </c>
       <c r="B60">
-        <v>0.02806387928157106</v>
+        <v>0.03020102820893666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B61">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B62">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B63">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.9576810345100899</v>
+        <v>0.9606408964193189</v>
       </c>
       <c r="B64">
-        <v>0.0423189654899101</v>
+        <v>0.03935910358068107</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B65">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B66">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.9606408964193189</v>
+        <v>0.9576810345100899</v>
       </c>
       <c r="B67">
-        <v>0.03935910358068107</v>
+        <v>0.0423189654899101</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.9500854021755016</v>
+        <v>0.9463760617991327</v>
       </c>
       <c r="B68">
-        <v>0.04991459782449836</v>
+        <v>0.0536239382008673</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.9500854021755016</v>
+        <v>0.952864233737766</v>
       </c>
       <c r="B69">
-        <v>0.04991459782449836</v>
+        <v>0.04713576626223404</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B70">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B71">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B72">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.9463760617991327</v>
+        <v>0.9500854021755016</v>
       </c>
       <c r="B73">
-        <v>0.0536239382008673</v>
+        <v>0.04991459782449836</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B74">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.9484904816159287</v>
+        <v>0.9446695192863858</v>
       </c>
       <c r="B75">
-        <v>0.05150951838407125</v>
+        <v>0.05533048071361424</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B76">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B77">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.9500854021755016</v>
+        <v>0.952864233737766</v>
       </c>
       <c r="B78">
-        <v>0.04991459782449836</v>
+        <v>0.04713576626223404</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B79">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B80">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B81">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B82">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B83">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B84">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B85">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B86">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B87">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B88">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.9505500210886583</v>
+        <v>0.9539846739055504</v>
       </c>
       <c r="B89">
-        <v>0.04944997891134173</v>
+        <v>0.04601532609444958</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.965557584401581</v>
+        <v>0.9679849631728032</v>
       </c>
       <c r="B90">
-        <v>0.03444241559841899</v>
+        <v>0.03201503682719675</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.965557584401581</v>
+        <v>0.9679849631728032</v>
       </c>
       <c r="B91">
-        <v>0.03444241559841899</v>
+        <v>0.03201503682719675</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.9598448200158937</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B92">
-        <v>0.04015517998410634</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B93">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B94">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B95">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B96">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B97">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.9500854021755016</v>
+        <v>0.9463760617991327</v>
       </c>
       <c r="B98">
-        <v>0.04991459782449836</v>
+        <v>0.0536239382008673</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.9446136498551886</v>
+        <v>0.948438259779062</v>
       </c>
       <c r="B99">
-        <v>0.05538635014481141</v>
+        <v>0.05156174022093796</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.9715971207371186</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B100">
-        <v>0.02840287926288143</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B101">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.9548075742564475</v>
+        <v>0.9579595885450986</v>
       </c>
       <c r="B102">
-        <v>0.04519242574355253</v>
+        <v>0.04204041145490145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B103">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B104">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.9548075742564475</v>
+        <v>0.9579595885450986</v>
       </c>
       <c r="B105">
-        <v>0.04519242574355253</v>
+        <v>0.04204041145490145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.9603183597140345</v>
+        <v>0.9579595885450986</v>
       </c>
       <c r="B106">
-        <v>0.03968164028596555</v>
+        <v>0.04204041145490145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B107">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B108">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B109">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B110">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.9463760617991327</v>
+        <v>0.9561455638324161</v>
       </c>
       <c r="B111">
-        <v>0.0536239382008673</v>
+        <v>0.04385443616758389</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.958907311389915</v>
+        <v>0.9617848278372547</v>
       </c>
       <c r="B112">
-        <v>0.04109268861008497</v>
+        <v>0.03821517216274528</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B113">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.9354291631928947</v>
+        <v>0.9470815121170441</v>
       </c>
       <c r="B114">
-        <v>0.06457083680710529</v>
+        <v>0.05291848788295594</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B115">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.9598448200158937</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B116">
-        <v>0.04015517998410634</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B117">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.9361714836121064</v>
+        <v>0.94054235920294</v>
       </c>
       <c r="B118">
-        <v>0.06382851638789355</v>
+        <v>0.05945764079705995</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B119">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.9598448200158937</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B120">
-        <v>0.04015517998410634</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B121">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B122">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.9561455638324161</v>
+        <v>0.952864233737766</v>
       </c>
       <c r="B123">
-        <v>0.04385443616758389</v>
+        <v>0.04713576626223404</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B124">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B125">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.9675998259105785</v>
+        <v>0.9651442975360035</v>
       </c>
       <c r="B126">
-        <v>0.03240017408942153</v>
+        <v>0.0348557024639965</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B127">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.9651442975360035</v>
+        <v>0.9675998259105785</v>
       </c>
       <c r="B128">
-        <v>0.0348557024639965</v>
+        <v>0.03240017408942153</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B129">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.9542714032642748</v>
+        <v>0.9574591474541657</v>
       </c>
       <c r="B130">
-        <v>0.04572859673572516</v>
+        <v>0.04254085254583428</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.9532101144621142</v>
+        <v>0.9617848278372547</v>
       </c>
       <c r="B131">
-        <v>0.04678988553788577</v>
+        <v>0.03821517216274528</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.9096253002421955</v>
+        <v>0.9255636317755322</v>
       </c>
       <c r="B132">
-        <v>0.09037469975780454</v>
+        <v>0.07443636822446775</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.9679849631728032</v>
+        <v>0.965557584401581</v>
       </c>
       <c r="B133">
-        <v>0.03201503682719675</v>
+        <v>0.03444241559841899</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.9564684662780496</v>
+        <v>0.958907311389915</v>
       </c>
       <c r="B134">
-        <v>0.0435315337219504</v>
+        <v>0.04109268861008497</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.8910805038277154</v>
+        <v>0.8967873837484649</v>
       </c>
       <c r="B135">
-        <v>0.1089194961722846</v>
+        <v>0.1032126162515351</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.9574591474541657</v>
+        <v>0.9542714032642748</v>
       </c>
       <c r="B136">
-        <v>0.04254085254583428</v>
+        <v>0.04572859673572516</v>
       </c>
     </row>
   </sheetData>
@@ -1480,1082 +1480,1082 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B2">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.7018210122002708</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B3">
-        <v>0.2981789877997292</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.7018210122002708</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B4">
-        <v>0.2981789877997292</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.7018210122002708</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B5">
-        <v>0.2981789877997292</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.644168945095388</v>
+        <v>0.6457758231984041</v>
       </c>
       <c r="B6">
-        <v>0.355831054904612</v>
+        <v>0.3542241768015959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.5300551603153564</v>
+        <v>0.4938044439500647</v>
       </c>
       <c r="B7">
-        <v>0.4699448396846436</v>
+        <v>0.5061955560499354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.7018210122002708</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B8">
-        <v>0.2981789877997292</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B9">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.6058915564317082</v>
+        <v>0.6399677458750194</v>
       </c>
       <c r="B10">
-        <v>0.3941084435682918</v>
+        <v>0.3600322541249806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B11">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B12">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B13">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B14">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B15">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B16">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.5797129902977097</v>
+        <v>0.5439974252575221</v>
       </c>
       <c r="B17">
-        <v>0.4202870097022903</v>
+        <v>0.4560025747424779</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B18">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.4938044439500647</v>
+        <v>0.5300551603153564</v>
       </c>
       <c r="B19">
-        <v>0.5061955560499354</v>
+        <v>0.4699448396846436</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B20">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.7018210122002708</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B21">
-        <v>0.2981789877997292</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.6721339889608446</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B22">
-        <v>0.3278660110391554</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.7948678155540934</v>
+        <v>0.7960096665878014</v>
       </c>
       <c r="B23">
-        <v>0.2051321844459066</v>
+        <v>0.2039903334121986</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B24">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B25">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B26">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.4894917280149658</v>
+        <v>0.4193796994240473</v>
       </c>
       <c r="B27">
-        <v>0.5105082719850342</v>
+        <v>0.5806203005759527</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B28">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B29">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B30">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B31">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B32">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B33">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B34">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B35">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.7045591775339963</v>
+        <v>0.6424061173039233</v>
       </c>
       <c r="B36">
-        <v>0.2954408224660037</v>
+        <v>0.3575938826960767</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.3667005820106765</v>
+        <v>0.3336890445438262</v>
       </c>
       <c r="B37">
-        <v>0.6332994179893234</v>
+        <v>0.6663109554561738</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B38">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.7375739615296496</v>
+        <v>0.67920398791478</v>
       </c>
       <c r="B39">
-        <v>0.2624260384703504</v>
+        <v>0.32079601208522</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.67920398791478</v>
+        <v>0.7375739615296496</v>
       </c>
       <c r="B40">
-        <v>0.32079601208522</v>
+        <v>0.2624260384703504</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B41">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.5616431332551663</v>
+        <v>0.5970004821619987</v>
       </c>
       <c r="B42">
-        <v>0.4383568667448337</v>
+        <v>0.4029995178380013</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.5303460091627676</v>
+        <v>0.5662783202035926</v>
       </c>
       <c r="B43">
-        <v>0.4696539908372324</v>
+        <v>0.4337216797964074</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.3487142569024069</v>
+        <v>0.4154658917508582</v>
       </c>
       <c r="B44">
-        <v>0.6512857430975931</v>
+        <v>0.5845341082491418</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.7117944404286595</v>
+        <v>0.7132318826785365</v>
       </c>
       <c r="B45">
-        <v>0.2882055595713405</v>
+        <v>0.2867681173214635</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.628433663277233</v>
+        <v>0.5939584366023116</v>
       </c>
       <c r="B46">
-        <v>0.371566336722767</v>
+        <v>0.4060415633976884</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.4188780603190685</v>
+        <v>0.3840176001607092</v>
       </c>
       <c r="B47">
-        <v>0.5811219396809315</v>
+        <v>0.6159823998392908</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B48">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B49">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B50">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B51">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B52">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B53">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.7018210122002708</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B54">
-        <v>0.2981789877997292</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B55">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.7062741563486813</v>
+        <v>0.7077278260345123</v>
       </c>
       <c r="B56">
-        <v>0.2937258436513187</v>
+        <v>0.2922721739654877</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B57">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.560261162692259</v>
+        <v>0.628433663277233</v>
       </c>
       <c r="B58">
-        <v>0.439738837307741</v>
+        <v>0.371566336722767</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B59">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.4958505021129074</v>
+        <v>0.53209353377499</v>
       </c>
       <c r="B60">
-        <v>0.5041494978870926</v>
+        <v>0.46790646622501</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B61">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B62">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B63">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.628433663277233</v>
+        <v>0.5939584366023116</v>
       </c>
       <c r="B64">
-        <v>0.371566336722767</v>
+        <v>0.4060415633976884</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B65">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B66">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.5939584366023116</v>
+        <v>0.628433663277233</v>
       </c>
       <c r="B67">
-        <v>0.4060415633976884</v>
+        <v>0.371566336722767</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.5972813775816974</v>
+        <v>0.6316494381468593</v>
       </c>
       <c r="B68">
-        <v>0.4027186224183026</v>
+        <v>0.3683505618531407</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.6037006832521241</v>
+        <v>0.6053783570307989</v>
       </c>
       <c r="B69">
-        <v>0.3962993167478759</v>
+        <v>0.3946216429692011</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B70">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B71">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B72">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.5970004821619987</v>
+        <v>0.5616431332551663</v>
       </c>
       <c r="B73">
-        <v>0.4029995178380013</v>
+        <v>0.4383568667448337</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B74">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.5531895586395813</v>
+        <v>0.5887294654004447</v>
       </c>
       <c r="B75">
-        <v>0.4468104413604187</v>
+        <v>0.4112705345995553</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B76">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B77">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.7085284562530929</v>
+        <v>0.7099755506340787</v>
       </c>
       <c r="B78">
-        <v>0.2914715437469071</v>
+        <v>0.2900244493659213</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B79">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.819378485547234</v>
+        <v>0.8398740962970126</v>
       </c>
       <c r="B80">
-        <v>0.180621514452766</v>
+        <v>0.1601259037029874</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B81">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B82">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B83">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B84">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B85">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B86">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B87">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B88">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.745464868124164</v>
+        <v>0.7169575797881189</v>
       </c>
       <c r="B89">
-        <v>0.254535131875836</v>
+        <v>0.2830424202118811</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.4322855028630051</v>
+        <v>0.3970716474729027</v>
       </c>
       <c r="B90">
-        <v>0.567714497136995</v>
+        <v>0.6029283525270972</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.5662783202035926</v>
+        <v>0.5303460091627676</v>
       </c>
       <c r="B91">
-        <v>0.4337216797964074</v>
+        <v>0.4696539908372324</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.7442437589410175</v>
+        <v>0.6938472926254289</v>
       </c>
       <c r="B92">
-        <v>0.2557562410589825</v>
+        <v>0.3061527073745711</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B93">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B94">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B95">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B96">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.819378485547234</v>
+        <v>0.8398740962970126</v>
       </c>
       <c r="B97">
-        <v>0.180621514452766</v>
+        <v>0.1601259037029874</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.7325906017309547</v>
+        <v>0.7600503287915591</v>
       </c>
       <c r="B98">
-        <v>0.2674093982690453</v>
+        <v>0.2399496712084409</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.628433663277233</v>
+        <v>0.5939584366023116</v>
       </c>
       <c r="B99">
-        <v>0.371566336722767</v>
+        <v>0.4060415633976884</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.7568820634508712</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B100">
-        <v>0.2431179365491288</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.7018210122002708</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B101">
-        <v>0.2981789877997292</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.4154658917508582</v>
+        <v>0.3807033685637619</v>
       </c>
       <c r="B102">
-        <v>0.5845341082491418</v>
+        <v>0.619296631436238</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B103">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B104">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.5300551603153564</v>
+        <v>0.4938044439500647</v>
       </c>
       <c r="B105">
-        <v>0.4699448396846436</v>
+        <v>0.5061955560499354</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.53209353377499</v>
+        <v>0.5303460091627676</v>
       </c>
       <c r="B106">
-        <v>0.46790646622501</v>
+        <v>0.4696539908372324</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B107">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.7312814213750157</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B108">
-        <v>0.2687185786249843</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B109">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.7018210122002708</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B110">
-        <v>0.2981789877997292</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.7375739615296496</v>
+        <v>0.67920398791478</v>
       </c>
       <c r="B111">
-        <v>0.2624260384703504</v>
+        <v>0.32079601208522</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.6218835943354255</v>
+        <v>0.5871998353144822</v>
       </c>
       <c r="B112">
-        <v>0.3781164056645745</v>
+        <v>0.4128001646855178</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B113">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.7983842651755577</v>
+        <v>0.7489359556082453</v>
       </c>
       <c r="B114">
-        <v>0.2016157348244423</v>
+        <v>0.2510640443917547</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B115">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.7825876298816757</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B116">
-        <v>0.2174123701183243</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B117">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.6399677458750194</v>
+        <v>0.6058915564317082</v>
       </c>
       <c r="B118">
-        <v>0.3600322541249806</v>
+        <v>0.3941084435682918</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B119">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.7032874620452781</v>
+        <v>0.7018210122002708</v>
       </c>
       <c r="B120">
-        <v>0.2967125379547219</v>
+        <v>0.2981789877997292</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B121">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B122">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.4128784004529876</v>
+        <v>0.4484514136516352</v>
       </c>
       <c r="B123">
-        <v>0.5871215995470124</v>
+        <v>0.5515485863483649</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.7018210122002708</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B124">
-        <v>0.2981789877997292</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B125">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.7813912812407504</v>
+        <v>0.8051724719404769</v>
       </c>
       <c r="B126">
-        <v>0.2186087187592496</v>
+        <v>0.1948275280595231</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B127">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B128">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B129">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.8051724719404769</v>
+        <v>0.7813912812407504</v>
       </c>
       <c r="B130">
-        <v>0.1948275280595231</v>
+        <v>0.2186087187592496</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.6302865055315038</v>
+        <v>0.5871998353144822</v>
       </c>
       <c r="B131">
-        <v>0.3697134944684962</v>
+        <v>0.4128001646855178</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.7045591775339963</v>
+        <v>0.6424061173039233</v>
       </c>
       <c r="B132">
-        <v>0.2954408224660037</v>
+        <v>0.3575938826960767</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.5303460091627676</v>
+        <v>0.5662783202035926</v>
       </c>
       <c r="B133">
-        <v>0.4696539908372324</v>
+        <v>0.4337216797964074</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.595872639690386</v>
+        <v>0.6218835943354255</v>
       </c>
       <c r="B134">
-        <v>0.404127360309614</v>
+        <v>0.3781164056645745</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.644168945095388</v>
+        <v>0.6457758231984041</v>
       </c>
       <c r="B135">
-        <v>0.355831054904612</v>
+        <v>0.3542241768015959</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.7018210122002708</v>
+        <v>0.7312814213750157</v>
       </c>
       <c r="B136">
-        <v>0.2981789877997292</v>
+        <v>0.2687185786249843</v>
       </c>
     </row>
   </sheetData>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.8195774459801225</v>
+        <v>0.8913315169892539</v>
       </c>
       <c r="B6">
-        <v>0.1804225540198775</v>
+        <v>0.1086684830107461</v>
       </c>
     </row>
     <row r="7">
@@ -2745,18 +2745,18 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.9225141671784659</v>
+        <v>0.9039448731699208</v>
       </c>
       <c r="B22">
-        <v>0.0774858328215341</v>
+        <v>0.09605512683007922</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.7745047785212744</v>
+        <v>0.8611473357585847</v>
       </c>
       <c r="B23">
-        <v>0.2254952214787256</v>
+        <v>0.1388526642414153</v>
       </c>
     </row>
     <row r="24">
@@ -2785,10 +2785,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.7000313322305487</v>
+        <v>0.8614729518157014</v>
       </c>
       <c r="B27">
-        <v>0.2999686677694513</v>
+        <v>0.1385270481842986</v>
       </c>
     </row>
     <row r="28">
@@ -2857,10 +2857,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.8447563256827332</v>
+        <v>0.9076253914387286</v>
       </c>
       <c r="B36">
-        <v>0.1552436743172668</v>
+        <v>0.09237460856127144</v>
       </c>
     </row>
     <row r="37">
@@ -2881,18 +2881,18 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.7000313322305487</v>
+        <v>0.8614729518157014</v>
       </c>
       <c r="B39">
-        <v>0.2999686677694513</v>
+        <v>0.1385270481842986</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.8614729518157014</v>
+        <v>0.7000313322305487</v>
       </c>
       <c r="B40">
-        <v>0.1385270481842986</v>
+        <v>0.2999686677694513</v>
       </c>
     </row>
     <row r="41">
@@ -2921,18 +2921,18 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.873174084761754</v>
+        <v>0.7866676193939127</v>
       </c>
       <c r="B44">
-        <v>0.126825915238246</v>
+        <v>0.2133323806060873</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.6868458023441908</v>
+        <v>0.8539027849103858</v>
       </c>
       <c r="B45">
-        <v>0.3131541976558092</v>
+        <v>0.1460972150896142</v>
       </c>
     </row>
     <row r="46">
@@ -3017,10 +3017,10 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.6868458023441908</v>
+        <v>0.8539027849103858</v>
       </c>
       <c r="B56">
-        <v>0.3131541976558092</v>
+        <v>0.1460972150896142</v>
       </c>
     </row>
     <row r="57">
@@ -3033,10 +3033,10 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.9225141671784659</v>
+        <v>0.9039448731699208</v>
       </c>
       <c r="B58">
-        <v>0.0774858328215341</v>
+        <v>0.09605512683007922</v>
       </c>
     </row>
     <row r="59">
@@ -3121,10 +3121,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.7000313322305487</v>
+        <v>0.8614729518157014</v>
       </c>
       <c r="B69">
-        <v>0.2999686677694513</v>
+        <v>0.1385270481842986</v>
       </c>
     </row>
     <row r="70">
@@ -3193,10 +3193,10 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.7000313322305487</v>
+        <v>0.8614729518157014</v>
       </c>
       <c r="B78">
-        <v>0.2999686677694513</v>
+        <v>0.1385270481842986</v>
       </c>
     </row>
     <row r="79">
@@ -3305,10 +3305,10 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.8976958394363117</v>
+        <v>0.8819572804019949</v>
       </c>
       <c r="B92">
-        <v>0.1023041605636883</v>
+        <v>0.1180427195980051</v>
       </c>
     </row>
     <row r="93">
@@ -3369,10 +3369,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.9225141671784659</v>
+        <v>0.9039448731699208</v>
       </c>
       <c r="B100">
-        <v>0.0774858328215341</v>
+        <v>0.09605512683007922</v>
       </c>
     </row>
     <row r="101">
@@ -3417,10 +3417,10 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.8661440001644842</v>
+        <v>0.7760721229984309</v>
       </c>
       <c r="B106">
-        <v>0.1338559998355158</v>
+        <v>0.2239278770015691</v>
       </c>
     </row>
     <row r="107">
@@ -3457,10 +3457,10 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.7000313322305487</v>
+        <v>0.8614729518157014</v>
       </c>
       <c r="B111">
-        <v>0.2999686677694513</v>
+        <v>0.1385270481842986</v>
       </c>
     </row>
     <row r="112">
@@ -3481,10 +3481,10 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.8718981782683997</v>
+        <v>0.8959495960468584</v>
       </c>
       <c r="B114">
-        <v>0.1281018217316003</v>
+        <v>0.1040504039531416</v>
       </c>
     </row>
     <row r="115">
@@ -3497,10 +3497,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.9085819921606533</v>
+        <v>0.8870825626153808</v>
       </c>
       <c r="B116">
-        <v>0.09141800783934673</v>
+        <v>0.1129174373846192</v>
       </c>
     </row>
     <row r="117">
@@ -3529,10 +3529,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.9085819921606533</v>
+        <v>0.8870825626153808</v>
       </c>
       <c r="B120">
-        <v>0.09141800783934673</v>
+        <v>0.1129174373846192</v>
       </c>
     </row>
     <row r="121">
@@ -3617,18 +3617,18 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.804473141214132</v>
+        <v>0.881364674182186</v>
       </c>
       <c r="B131">
-        <v>0.195526858785868</v>
+        <v>0.118635325817814</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.8447563256827332</v>
+        <v>0.9076253914387286</v>
       </c>
       <c r="B132">
-        <v>0.1552436743172668</v>
+        <v>0.09237460856127144</v>
       </c>
     </row>
     <row r="133">
@@ -3641,18 +3641,18 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.804473141214132</v>
+        <v>0.881364674182186</v>
       </c>
       <c r="B134">
-        <v>0.195526858785868</v>
+        <v>0.118635325817814</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.8195774459801225</v>
+        <v>0.8913315169892539</v>
       </c>
       <c r="B135">
-        <v>0.1804225540198775</v>
+        <v>0.1086684830107461</v>
       </c>
     </row>
     <row r="136">
@@ -3690,1082 +3690,1082 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B2">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B3">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B4">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B5">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.8198330088399713</v>
+        <v>0.8089464312669817</v>
       </c>
       <c r="B6">
-        <v>0.1801669911600287</v>
+        <v>0.1910535687330183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.818119573835836</v>
+        <v>0.8285942033436079</v>
       </c>
       <c r="B7">
-        <v>0.181880426164164</v>
+        <v>0.1714057966563921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B8">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B9">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.8163540039130655</v>
+        <v>0.8053071301595668</v>
       </c>
       <c r="B10">
-        <v>0.1836459960869345</v>
+        <v>0.1946928698404332</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B11">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B12">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B13">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B14">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B15">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B16">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.7846786182688223</v>
+        <v>0.7966003255569269</v>
       </c>
       <c r="B17">
-        <v>0.2153213817311777</v>
+        <v>0.2033996744430731</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B18">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.8285942033436079</v>
+        <v>0.818119573835836</v>
       </c>
       <c r="B19">
-        <v>0.1714057966563921</v>
+        <v>0.181880426164164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B20">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B21">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B22">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.8488567074062864</v>
+        <v>0.8393802933115424</v>
       </c>
       <c r="B23">
-        <v>0.1511432925937136</v>
+        <v>0.1606197066884576</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B24">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B25">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B26">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.7723239358507827</v>
+        <v>0.7847420345733058</v>
       </c>
       <c r="B27">
-        <v>0.2276760641492173</v>
+        <v>0.2152579654266942</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B28">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B29">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B30">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B31">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B32">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B33">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B34">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B35">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.822551081390652</v>
+        <v>0.8328226483368703</v>
       </c>
       <c r="B36">
-        <v>0.177448918609348</v>
+        <v>0.1671773516631297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.5568038275104408</v>
+        <v>0.5745007360920437</v>
       </c>
       <c r="B37">
-        <v>0.4431961724895592</v>
+        <v>0.4254992639079563</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B38">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.8324127626421595</v>
+        <v>0.8422229849303047</v>
       </c>
       <c r="B39">
-        <v>0.1675872373578405</v>
+        <v>0.1577770150696953</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.8422229849303047</v>
+        <v>0.8324127626421595</v>
       </c>
       <c r="B40">
-        <v>0.1577770150696953</v>
+        <v>0.1675872373578405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B41">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.8075668141508653</v>
+        <v>0.7961233707647668</v>
       </c>
       <c r="B42">
-        <v>0.1924331858491347</v>
+        <v>0.2038766292352332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.8285942033436079</v>
+        <v>0.818119573835836</v>
       </c>
       <c r="B43">
-        <v>0.1714057966563921</v>
+        <v>0.181880426164164</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.8213450155466543</v>
+        <v>0.810528686024358</v>
       </c>
       <c r="B44">
-        <v>0.1786549844533457</v>
+        <v>0.189471313975642</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.8298144928467266</v>
+        <v>0.8193981815311271</v>
       </c>
       <c r="B45">
-        <v>0.1701855071532734</v>
+        <v>0.1806018184688729</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.7922647630362414</v>
+        <v>0.8038714315532574</v>
       </c>
       <c r="B46">
-        <v>0.2077352369637586</v>
+        <v>0.1961285684467426</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.7241843838474397</v>
+        <v>0.7383385806776509</v>
       </c>
       <c r="B47">
-        <v>0.2758156161525603</v>
+        <v>0.2616614193223491</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B48">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B49">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B50">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B51">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B52">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B53">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B54">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B55">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.8298144928467266</v>
+        <v>0.8193981815311271</v>
       </c>
       <c r="B56">
-        <v>0.1701855071532734</v>
+        <v>0.1806018184688729</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B57">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.8177560506447987</v>
+        <v>0.8067735521290539</v>
       </c>
       <c r="B58">
-        <v>0.1822439493552013</v>
+        <v>0.1932264478709461</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B59">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.8410746285715064</v>
+        <v>0.8312073140075896</v>
       </c>
       <c r="B60">
-        <v>0.1589253714284936</v>
+        <v>0.1687926859924104</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B61">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B62">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B63">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.8067735521290539</v>
+        <v>0.8177560506447987</v>
       </c>
       <c r="B64">
-        <v>0.1932264478709461</v>
+        <v>0.1822439493552013</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B65">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B66">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.8177560506447987</v>
+        <v>0.8067735521290539</v>
       </c>
       <c r="B67">
-        <v>0.1822439493552013</v>
+        <v>0.1932264478709461</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.8075668141508653</v>
+        <v>0.7961233707647668</v>
       </c>
       <c r="B68">
-        <v>0.1924331858491347</v>
+        <v>0.2038766292352332</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.8075668141508653</v>
+        <v>0.7961233707647668</v>
       </c>
       <c r="B69">
-        <v>0.1924331858491347</v>
+        <v>0.2038766292352332</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B70">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B71">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B72">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.7961233707647668</v>
+        <v>0.8075668141508653</v>
       </c>
       <c r="B73">
-        <v>0.2038766292352332</v>
+        <v>0.1924331858491347</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B74">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.8285942033436079</v>
+        <v>0.818119573835836</v>
       </c>
       <c r="B75">
-        <v>0.1714057966563921</v>
+        <v>0.181880426164164</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B76">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B77">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.8422229849303047</v>
+        <v>0.8324127626421595</v>
       </c>
       <c r="B78">
-        <v>0.1577770150696953</v>
+        <v>0.1675872373578405</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B79">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B80">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B81">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B82">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B83">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B84">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B85">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B86">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B87">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B88">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.8391204530945191</v>
+        <v>0.8486094325440557</v>
       </c>
       <c r="B89">
-        <v>0.1608795469054809</v>
+        <v>0.1513905674559443</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.810528686024358</v>
+        <v>0.8213450155466543</v>
       </c>
       <c r="B90">
-        <v>0.189471313975642</v>
+        <v>0.1786549844533457</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.8312073140075896</v>
+        <v>0.8410746285715064</v>
       </c>
       <c r="B91">
-        <v>0.1687926859924104</v>
+        <v>0.1589253714284936</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B92">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B93">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B94">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B95">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B96">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B97">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.8422229849303047</v>
+        <v>0.8324127626421595</v>
       </c>
       <c r="B98">
-        <v>0.1577770150696953</v>
+        <v>0.1675872373578405</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.7922647630362414</v>
+        <v>0.8038714315532574</v>
       </c>
       <c r="B99">
-        <v>0.2077352369637586</v>
+        <v>0.1961285684467426</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B100">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B101">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.7962306426233028</v>
+        <v>0.8076695195173341</v>
       </c>
       <c r="B102">
-        <v>0.2037693573766972</v>
+        <v>0.1923304804826659</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B103">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B104">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.818119573835836</v>
+        <v>0.8285942033436079</v>
       </c>
       <c r="B105">
-        <v>0.181880426164164</v>
+        <v>0.1714057966563921</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.818119573835836</v>
+        <v>0.8285942033436079</v>
       </c>
       <c r="B106">
-        <v>0.181880426164164</v>
+        <v>0.1714057966563921</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B107">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B108">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B109">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B110">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.8324127626421595</v>
+        <v>0.8422229849303047</v>
       </c>
       <c r="B111">
-        <v>0.1675872373578405</v>
+        <v>0.1577770150696953</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.6674562247936412</v>
+        <v>0.6832482626238756</v>
       </c>
       <c r="B112">
-        <v>0.3325437752063588</v>
+        <v>0.3167517373761244</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B113">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.8265182195757225</v>
+        <v>0.8366057658710604</v>
       </c>
       <c r="B114">
-        <v>0.1734817804242775</v>
+        <v>0.1633942341289396</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B115">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B116">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B117">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.8053071301595668</v>
+        <v>0.8163540039130655</v>
       </c>
       <c r="B118">
-        <v>0.1946928698404332</v>
+        <v>0.1836459960869345</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B119">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B120">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B121">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B122">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.7847420345733058</v>
+        <v>0.7723239358507827</v>
       </c>
       <c r="B123">
-        <v>0.2152579654266942</v>
+        <v>0.2276760641492173</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B124">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B125">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.8590709086695864</v>
+        <v>0.8501218325165195</v>
       </c>
       <c r="B126">
-        <v>0.1409290913304136</v>
+        <v>0.1498781674834805</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B127">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.8501218325165195</v>
+        <v>0.8590709086695864</v>
       </c>
       <c r="B128">
-        <v>0.1498781674834805</v>
+        <v>0.1409290913304136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B129">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.8382152212632734</v>
+        <v>0.8477479053673862</v>
       </c>
       <c r="B130">
-        <v>0.1617847787367266</v>
+        <v>0.1522520946326138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.6674562247936412</v>
+        <v>0.6832482626238756</v>
       </c>
       <c r="B131">
-        <v>0.3325437752063588</v>
+        <v>0.3167517373761244</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.822551081390652</v>
+        <v>0.8328226483368703</v>
       </c>
       <c r="B132">
-        <v>0.177448918609348</v>
+        <v>0.1671773516631297</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.8410746285715064</v>
+        <v>0.8312073140075896</v>
       </c>
       <c r="B133">
-        <v>0.1589253714284936</v>
+        <v>0.1687926859924104</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.6832482626238756</v>
+        <v>0.6674562247936412</v>
       </c>
       <c r="B134">
-        <v>0.3167517373761244</v>
+        <v>0.3325437752063588</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.8198330088399713</v>
+        <v>0.8089464312669817</v>
       </c>
       <c r="B135">
-        <v>0.1801669911600287</v>
+        <v>0.1910535687330183</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.8477479053673862</v>
+        <v>0.8382152212632734</v>
       </c>
       <c r="B136">
-        <v>0.1522520946326138</v>
+        <v>0.1617847787367266</v>
       </c>
     </row>
   </sheetData>
@@ -4795,1082 +4795,1082 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.8254897652715496</v>
+        <v>0.813643698736533</v>
       </c>
       <c r="B2">
-        <v>0.1745102347284504</v>
+        <v>0.186356301263467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.813643698736533</v>
+        <v>0.8254897652715496</v>
       </c>
       <c r="B3">
-        <v>0.186356301263467</v>
+        <v>0.1745102347284504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.8437370714430703</v>
+        <v>0.8776988346311907</v>
       </c>
       <c r="B4">
-        <v>0.1562629285569297</v>
+        <v>0.1223011653688093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.813643698736533</v>
+        <v>0.8254897652715496</v>
       </c>
       <c r="B5">
-        <v>0.186356301263467</v>
+        <v>0.1745102347284504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.8283527038327079</v>
+        <v>0.7126503885146847</v>
       </c>
       <c r="B6">
-        <v>0.1716472961672921</v>
+        <v>0.2873496114853153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.5448930098490324</v>
+        <v>0.5249606262453104</v>
       </c>
       <c r="B7">
-        <v>0.4551069901509676</v>
+        <v>0.4750393737546896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.813643698736533</v>
+        <v>0.8254897652715496</v>
       </c>
       <c r="B8">
-        <v>0.186356301263467</v>
+        <v>0.1745102347284504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.8254897652715496</v>
+        <v>0.813643698736533</v>
       </c>
       <c r="B9">
-        <v>0.1745102347284504</v>
+        <v>0.186356301263467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.6955437261991574</v>
+        <v>0.629135290779218</v>
       </c>
       <c r="B10">
-        <v>0.3044562738008426</v>
+        <v>0.370864709220782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.8776988346311907</v>
+        <v>0.8437370714430703</v>
       </c>
       <c r="B11">
-        <v>0.1223011653688093</v>
+        <v>0.1562629285569297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.8254897652715496</v>
+        <v>0.813643698736533</v>
       </c>
       <c r="B12">
-        <v>0.1745102347284504</v>
+        <v>0.186356301263467</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B13">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B14">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B15">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B16">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.8011916940036367</v>
+        <v>0.803275745224734</v>
       </c>
       <c r="B17">
-        <v>0.1988083059963633</v>
+        <v>0.196724254775266</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.8776988346311907</v>
+        <v>0.8437370714430703</v>
       </c>
       <c r="B18">
-        <v>0.1223011653688093</v>
+        <v>0.1562629285569297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.5249606262453104</v>
+        <v>0.5448930098490324</v>
       </c>
       <c r="B19">
-        <v>0.4750393737546896</v>
+        <v>0.4551069901509676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B20">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.813643698736533</v>
+        <v>0.8254897652715496</v>
       </c>
       <c r="B21">
-        <v>0.186356301263467</v>
+        <v>0.1745102347284504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.7752358216614489</v>
+        <v>0.8776988346311907</v>
       </c>
       <c r="B22">
-        <v>0.2247641783385511</v>
+        <v>0.1223011653688093</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.8937047437452048</v>
+        <v>0.8120596022397366</v>
       </c>
       <c r="B23">
-        <v>0.1062952562547952</v>
+        <v>0.1879403977602634</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B24">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B25">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B26">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.6089591285216922</v>
+        <v>0.5196715951316606</v>
       </c>
       <c r="B27">
-        <v>0.3910408714783078</v>
+        <v>0.4803284048683394</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B28">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B29">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B30">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B31">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B32">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B33">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.8661500742319376</v>
+        <v>0.8958419955218299</v>
       </c>
       <c r="B34">
-        <v>0.1338499257680624</v>
+        <v>0.1041580044781701</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.8776988346311907</v>
+        <v>0.8437370714430703</v>
       </c>
       <c r="B35">
-        <v>0.1223011653688093</v>
+        <v>0.1562629285569297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.88200104561988</v>
+        <v>0.8287037131092388</v>
       </c>
       <c r="B36">
-        <v>0.11799895438012</v>
+        <v>0.1712962868907612</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.3335158028642675</v>
+        <v>0.3387342640545433</v>
       </c>
       <c r="B37">
-        <v>0.6664841971357325</v>
+        <v>0.6612657359454567</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.8254897652715496</v>
+        <v>0.813643698736533</v>
       </c>
       <c r="B38">
-        <v>0.1745102347284504</v>
+        <v>0.186356301263467</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.7224533721097224</v>
+        <v>0.6275251929103502</v>
       </c>
       <c r="B39">
-        <v>0.2775466278902776</v>
+        <v>0.3724748070896498</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.6275251929103502</v>
+        <v>0.7224533721097224</v>
       </c>
       <c r="B40">
-        <v>0.3724748070896498</v>
+        <v>0.2775466278902776</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.8776988346311907</v>
+        <v>0.8437370714430703</v>
       </c>
       <c r="B41">
-        <v>0.1223011653688093</v>
+        <v>0.1562629285569297</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.7239458671090354</v>
+        <v>0.7213129811820641</v>
       </c>
       <c r="B42">
-        <v>0.2760541328909646</v>
+        <v>0.2786870188179359</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.5697824602425126</v>
+        <v>0.5893054795635289</v>
       </c>
       <c r="B43">
-        <v>0.4302175397574874</v>
+        <v>0.4106945204364711</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.3859965913628588</v>
+        <v>0.5492626706097721</v>
       </c>
       <c r="B44">
-        <v>0.6140034086371412</v>
+        <v>0.4507373293902279</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.6803146657401629</v>
+        <v>0.5223631488055399</v>
       </c>
       <c r="B45">
-        <v>0.3196853342598371</v>
+        <v>0.4776368511944601</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.7982896614861738</v>
+        <v>0.7850779243787107</v>
       </c>
       <c r="B46">
-        <v>0.2017103385138262</v>
+        <v>0.2149220756212893</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.5030290258081952</v>
+        <v>0.5571582457764473</v>
       </c>
       <c r="B47">
-        <v>0.4969709741918048</v>
+        <v>0.4428417542235527</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B48">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.8661500742319376</v>
+        <v>0.8958419955218299</v>
       </c>
       <c r="B49">
-        <v>0.1338499257680624</v>
+        <v>0.1041580044781701</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B50">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.8254897652715496</v>
+        <v>0.813643698736533</v>
       </c>
       <c r="B51">
-        <v>0.1745102347284504</v>
+        <v>0.186356301263467</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B52">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B53">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.813643698736533</v>
+        <v>0.8254897652715496</v>
       </c>
       <c r="B54">
-        <v>0.186356301263467</v>
+        <v>0.1745102347284504</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.8661500742319376</v>
+        <v>0.8958419955218299</v>
       </c>
       <c r="B55">
-        <v>0.1338499257680624</v>
+        <v>0.1041580044781701</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.7071314828242298</v>
+        <v>0.5537383693499218</v>
       </c>
       <c r="B56">
-        <v>0.2928685171757702</v>
+        <v>0.4462616306500782</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B57">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.7426448416837086</v>
+        <v>0.8572288955223943</v>
       </c>
       <c r="B58">
-        <v>0.2573551583162914</v>
+        <v>0.1427711044776057</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B59">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.5113023370402104</v>
+        <v>0.5816944369272816</v>
       </c>
       <c r="B60">
-        <v>0.4886976629597896</v>
+        <v>0.4183055630727184</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B61">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B62">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B63">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.8572288955223943</v>
+        <v>0.8187566392709247</v>
       </c>
       <c r="B64">
-        <v>0.1427711044776057</v>
+        <v>0.1812433607290753</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B65">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B66">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.8187566392709247</v>
+        <v>0.8572288955223943</v>
       </c>
       <c r="B67">
-        <v>0.1812433607290753</v>
+        <v>0.1427711044776057</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.7618004713086899</v>
+        <v>0.7594086404011628</v>
       </c>
       <c r="B68">
-        <v>0.2381995286913101</v>
+        <v>0.2405913595988372</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.7381357261573189</v>
+        <v>0.6399115226694346</v>
       </c>
       <c r="B69">
-        <v>0.2618642738426811</v>
+        <v>0.3600884773305654</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B70">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B71">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B72">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.7213129811820641</v>
+        <v>0.7239458671090354</v>
       </c>
       <c r="B73">
-        <v>0.2786870188179359</v>
+        <v>0.2760541328909646</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B74">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.5308845918568805</v>
+        <v>0.5507811121237726</v>
       </c>
       <c r="B75">
-        <v>0.4691154081431195</v>
+        <v>0.4492188878762274</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.8661500742319376</v>
+        <v>0.8958419955218299</v>
       </c>
       <c r="B76">
-        <v>0.1338499257680624</v>
+        <v>0.1041580044781701</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B77">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.725079590548307</v>
+        <v>0.6244497445600603</v>
       </c>
       <c r="B78">
-        <v>0.274920409451693</v>
+        <v>0.3755502554399397</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B79">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.8688819548235053</v>
+        <v>0.8980392013691274</v>
       </c>
       <c r="B80">
-        <v>0.1311180451764947</v>
+        <v>0.1019607986308726</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B81">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B82">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B83">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B84">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B85">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.8661500742319376</v>
+        <v>0.8958419955218299</v>
       </c>
       <c r="B86">
-        <v>0.1338499257680624</v>
+        <v>0.1041580044781701</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B87">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B88">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.9113657302391753</v>
+        <v>0.9186166666918565</v>
       </c>
       <c r="B89">
-        <v>0.08863426976082467</v>
+        <v>0.08138333330814351</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.5838723146794332</v>
+        <v>0.5312122571016858</v>
       </c>
       <c r="B90">
-        <v>0.4161276853205668</v>
+        <v>0.4687877428983142</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.6852313272365171</v>
+        <v>0.6209076295606288</v>
       </c>
       <c r="B91">
-        <v>0.3147686727634829</v>
+        <v>0.3790923704393712</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.7170806755161506</v>
+        <v>0.7855117717943861</v>
       </c>
       <c r="B92">
-        <v>0.2829193244838494</v>
+        <v>0.2144882282056139</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.8776988346311907</v>
+        <v>0.8437370714430703</v>
       </c>
       <c r="B93">
-        <v>0.1223011653688093</v>
+        <v>0.1562629285569297</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.8661500742319376</v>
+        <v>0.8958419955218299</v>
       </c>
       <c r="B94">
-        <v>0.1338499257680624</v>
+        <v>0.1041580044781701</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B95">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B96">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.8427283995397701</v>
+        <v>0.85305953462371</v>
       </c>
       <c r="B97">
-        <v>0.1572716004602299</v>
+        <v>0.14694046537629</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.7911958710685317</v>
+        <v>0.7890174604873494</v>
       </c>
       <c r="B98">
-        <v>0.2088041289314683</v>
+        <v>0.2109825395126506</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.7982896614861738</v>
+        <v>0.7850779243787107</v>
       </c>
       <c r="B99">
-        <v>0.2017103385138262</v>
+        <v>0.2149220756212893</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.8052056925867102</v>
+        <v>0.8958419955218299</v>
       </c>
       <c r="B100">
-        <v>0.1947943074132898</v>
+        <v>0.1041580044781701</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.8437370714430703</v>
+        <v>0.8776988346311907</v>
       </c>
       <c r="B101">
-        <v>0.1562629285569297</v>
+        <v>0.1223011653688093</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.4454353065891195</v>
+        <v>0.4431406848013368</v>
       </c>
       <c r="B102">
-        <v>0.5545646934108805</v>
+        <v>0.5568593151986632</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B103">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B104">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.5448930098490324</v>
+        <v>0.5249606262453104</v>
       </c>
       <c r="B105">
-        <v>0.4551069901509676</v>
+        <v>0.4750393737546896</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.4782411593704287</v>
+        <v>0.5697824602425126</v>
       </c>
       <c r="B106">
-        <v>0.5217588406295712</v>
+        <v>0.4302175397574874</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B107">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.8254897652715496</v>
+        <v>0.813643698736533</v>
       </c>
       <c r="B108">
-        <v>0.1745102347284504</v>
+        <v>0.186356301263467</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B109">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.8437370714430703</v>
+        <v>0.8776988346311907</v>
       </c>
       <c r="B110">
-        <v>0.1562629285569297</v>
+        <v>0.1223011653688093</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.7224533721097224</v>
+        <v>0.6275251929103502</v>
       </c>
       <c r="B111">
-        <v>0.2775466278902776</v>
+        <v>0.3724748070896498</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.7078135517221859</v>
+        <v>0.7126265481486992</v>
       </c>
       <c r="B112">
-        <v>0.2921864482778141</v>
+        <v>0.2873734518513008</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.8395522267251184</v>
+        <v>0.8500548805681818</v>
       </c>
       <c r="B113">
-        <v>0.1604477732748816</v>
+        <v>0.1499451194318182</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.8892874792792461</v>
+        <v>0.8735762050370398</v>
       </c>
       <c r="B114">
-        <v>0.1107125207207539</v>
+        <v>0.1264237949629602</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B115">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.7836128936312357</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B116">
-        <v>0.2163871063687643</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B117">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.629135290779218</v>
+        <v>0.6955437261991574</v>
       </c>
       <c r="B118">
-        <v>0.370864709220782</v>
+        <v>0.3044562738008426</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.8661500742319376</v>
+        <v>0.8958419955218299</v>
       </c>
       <c r="B119">
-        <v>0.1338499257680624</v>
+        <v>0.1041580044781701</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.7513467850402464</v>
+        <v>0.813643698736533</v>
       </c>
       <c r="B120">
-        <v>0.2486532149597536</v>
+        <v>0.186356301263467</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B121">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.8661500742319376</v>
+        <v>0.8958419955218299</v>
       </c>
       <c r="B122">
-        <v>0.1338499257680624</v>
+        <v>0.1041580044781701</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.5510716711190724</v>
+        <v>0.5302201945967083</v>
       </c>
       <c r="B123">
-        <v>0.4489283288809276</v>
+        <v>0.4697798054032917</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.8437370714430703</v>
+        <v>0.8776988346311907</v>
       </c>
       <c r="B124">
-        <v>0.1562629285569297</v>
+        <v>0.1223011653688093</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B125">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.8661500742319376</v>
+        <v>0.8958419955218299</v>
       </c>
       <c r="B126">
-        <v>0.1338499257680624</v>
+        <v>0.1041580044781701</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B127">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.8958419955218299</v>
+        <v>0.8661500742319376</v>
       </c>
       <c r="B128">
-        <v>0.1041580044781701</v>
+        <v>0.1338499257680624</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B129">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.8500548805681818</v>
+        <v>0.8395522267251184</v>
       </c>
       <c r="B130">
-        <v>0.1499451194318182</v>
+        <v>0.1604477732748816</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.7913321392313852</v>
+        <v>0.7126265481486992</v>
       </c>
       <c r="B131">
-        <v>0.2086678607686148</v>
+        <v>0.2873734518513008</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.88200104561988</v>
+        <v>0.8287037131092388</v>
       </c>
       <c r="B132">
-        <v>0.11799895438012</v>
+        <v>0.1712962868907612</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.6209076295606288</v>
+        <v>0.6852313272365171</v>
       </c>
       <c r="B133">
-        <v>0.3790923704393712</v>
+        <v>0.3147686727634829</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.7951675127420907</v>
+        <v>0.7078135517221859</v>
       </c>
       <c r="B134">
-        <v>0.2048324872579093</v>
+        <v>0.2921864482778141</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.8283527038327079</v>
+        <v>0.7126503885146847</v>
       </c>
       <c r="B135">
-        <v>0.1716472961672921</v>
+        <v>0.2873496114853153</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.813643698736533</v>
+        <v>0.8254897652715496</v>
       </c>
       <c r="B136">
-        <v>0.186356301263467</v>
+        <v>0.1745102347284504</v>
       </c>
     </row>
   </sheetData>
